--- a/Finish_repo/Progress.xlsx
+++ b/Finish_repo/Progress.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ching\Desktop\C\cs61b\Submit_repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ching\Desktop\C\cs61b\Finish_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEF2381-6214-40B9-8D7B-445F71186B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83A341-207E-41AD-8F72-300E43AFCF04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8DF1F39C-5698-477D-AC65-5D6D325D3D4D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="189">
   <si>
     <t>Week</t>
   </si>
@@ -1676,6 +1676,14 @@
   </si>
   <si>
     <t>last 2 slide</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意typo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proj0的extra</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1751,7 +1759,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1794,12 +1802,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -2028,7 +2030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2089,21 +2091,135 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2113,61 +2229,46 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2176,10 +2277,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2209,67 +2307,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2278,73 +2319,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2664,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED999E0B-2FF1-4E79-B2F3-6B08563A640A}">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2689,35 +2673,35 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="63">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="93" t="s">
+      <c r="H2" s="95"/>
+      <c r="I2" s="29" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2725,190 +2709,196 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="83" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
+      <c r="I3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
+      <c r="I4" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="63">
         <v>1.2</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
     </row>
     <row r="6" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="88" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="53">
         <v>2.1</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="100" t="s">
+      <c r="G7" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="95"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="83" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="103"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="12"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="103"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="94" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="103"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="97"/>
     </row>
     <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.4">
       <c r="A11" s="12"/>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="53">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="103"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="97"/>
     </row>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="96" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.4">
       <c r="A13" s="12"/>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="103"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="97"/>
     </row>
     <row r="14" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="88" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="105"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
     </row>
     <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="63">
         <v>2.5</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2917,56 +2907,56 @@
       <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="30"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="8"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2975,60 +2965,60 @@
       <c r="E19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="63">
         <v>4.0999999999999996</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="27"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
         <v>4</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="53">
         <v>4.2</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -3037,13 +3027,13 @@
       <c r="E23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="53" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3051,44 +3041,44 @@
       <c r="A24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="12"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A27" s="12"/>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="53">
         <v>4.3</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -3097,65 +3087,65 @@
       <c r="E27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="40"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A29" s="12"/>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="13"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="16"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>5</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="63" t="s">
         <v>58</v>
       </c>
       <c r="H31" s="9"/>
@@ -3164,39 +3154,39 @@
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="26"/>
+      <c r="F32" s="64"/>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="26"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="64"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="4"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="26"/>
+      <c r="F34" s="64"/>
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -3205,66 +3195,66 @@
       <c r="E35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="62" t="s">
+      <c r="F35" s="64"/>
+      <c r="G35" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="63"/>
+      <c r="H35" s="67"/>
     </row>
     <row r="36" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="61"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="64" t="s">
+      <c r="F36" s="64"/>
+      <c r="G36" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="65"/>
+      <c r="H36" s="69"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="70" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="29" t="s">
+      <c r="F37" s="64"/>
+      <c r="G37" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="30"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="50"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="32"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
     </row>
     <row r="39" spans="1:8" ht="68" x14ac:dyDescent="0.4">
       <c r="A39" s="10">
         <v>6</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="80" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -3276,53 +3266,53 @@
       <c r="F39" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="32"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="66"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="32"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="12"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="66"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="28"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" ht="68.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="81"/>
       <c r="D42" s="16"/>
       <c r="E42" s="17"/>
       <c r="F42" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="31"/>
-      <c r="H42" s="32"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
     </row>
     <row r="43" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A43" s="12"/>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="10" t="s">
@@ -3332,13 +3322,13 @@
         <v>73</v>
       </c>
       <c r="F43" s="12"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="44"/>
     </row>
     <row r="44" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="12"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="48"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="16" t="s">
         <v>18</v>
       </c>
@@ -3346,15 +3336,15 @@
         <v>12</v>
       </c>
       <c r="F44" s="12"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="34"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
     </row>
     <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.4">
       <c r="A45" s="12"/>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="80" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="10" t="s">
@@ -3362,31 +3352,31 @@
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="41" t="s">
+      <c r="G45" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="42"/>
+      <c r="H45" s="57"/>
     </row>
     <row r="46" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="48"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="44"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="59"/>
     </row>
     <row r="47" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>7</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="70" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -3398,53 +3388,53 @@
       <c r="F47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="44"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="59"/>
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="67"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="59"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="67"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="75"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="28"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="44"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="1:8" ht="119.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="4"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="50"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="71"/>
       <c r="D50" s="8"/>
       <c r="E50" s="18"/>
       <c r="F50" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G50" s="43"/>
-      <c r="H50" s="44"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="59"/>
     </row>
     <row r="51" spans="1:8" ht="119" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="70" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -3454,13 +3444,13 @@
         <v>87</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="44"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="59"/>
     </row>
     <row r="52" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="4"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="50"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="8" t="s">
         <v>18</v>
       </c>
@@ -3468,15 +3458,15 @@
         <v>12</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="46"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="61"/>
     </row>
     <row r="53" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="70" t="s">
         <v>94</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -3484,31 +3474,31 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="30"/>
+      <c r="H53" s="42"/>
     </row>
     <row r="54" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="50"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="71"/>
       <c r="D54" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="32"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="44"/>
     </row>
     <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A55" s="10">
         <v>8</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="80" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="10" t="s">
@@ -3520,53 +3510,53 @@
       <c r="F55" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G55" s="31"/>
-      <c r="H55" s="32"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="44"/>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="66"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="82"/>
       <c r="D56" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="32"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="44"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="12"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="66"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="15"/>
-      <c r="E57" s="28"/>
+      <c r="E57" s="20"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="32"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" ht="102.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="12"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="48"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="81"/>
       <c r="D58" s="16"/>
       <c r="E58" s="17"/>
       <c r="F58" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="33"/>
-      <c r="H58" s="34"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="46"/>
     </row>
     <row r="59" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A59" s="12"/>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="47" t="s">
+      <c r="C59" s="80" t="s">
         <v>105</v>
       </c>
       <c r="D59" s="10" t="s">
@@ -3576,15 +3566,15 @@
         <v>101</v>
       </c>
       <c r="F59" s="12"/>
-      <c r="G59" s="41" t="s">
+      <c r="G59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="H59" s="42"/>
+      <c r="H59" s="57"/>
     </row>
     <row r="60" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="12"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="48"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="81"/>
       <c r="D60" s="16" t="s">
         <v>18</v>
       </c>
@@ -3592,17 +3582,17 @@
         <v>12</v>
       </c>
       <c r="F60" s="12"/>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="44"/>
+      <c r="H60" s="59"/>
     </row>
     <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A61" s="12"/>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="47" t="s">
+      <c r="C61" s="80" t="s">
         <v>111</v>
       </c>
       <c r="D61" s="10" t="s">
@@ -3610,31 +3600,31 @@
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="43" t="s">
+      <c r="G61" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H61" s="44"/>
+      <c r="H61" s="59"/>
     </row>
     <row r="62" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="13"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="81"/>
       <c r="D62" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="13"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="69"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="77"/>
     </row>
     <row r="63" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>9</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="70" t="s">
         <v>114</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -3646,53 +3636,53 @@
       <c r="F63" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G63" s="68"/>
-      <c r="H63" s="69"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="77"/>
     </row>
     <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="67"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="75"/>
       <c r="D64" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="28"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="69"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="77"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="67"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="75"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="28"/>
+      <c r="E65" s="20"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="69"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="77"/>
     </row>
     <row r="66" spans="1:8" ht="68.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="4"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="50"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="8"/>
       <c r="E66" s="18"/>
       <c r="F66" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G66" s="68"/>
-      <c r="H66" s="69"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="77"/>
     </row>
     <row r="67" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="70" t="s">
         <v>121</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -3702,13 +3692,13 @@
         <v>117</v>
       </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="69"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="77"/>
     </row>
     <row r="68" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="4"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="50"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="71"/>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
@@ -3716,15 +3706,15 @@
         <v>12</v>
       </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="69"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="77"/>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="70" t="s">
         <v>124</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -3732,20 +3722,20 @@
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="69"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="77"/>
     </row>
     <row r="70" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="50"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="71"/>
       <c r="D70" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="71"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="79"/>
     </row>
     <row r="71" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="72" t="s">
@@ -3762,10 +3752,10 @@
       <c r="A72" s="2">
         <v>10</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="70" t="s">
         <v>128</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -3774,7 +3764,7 @@
       <c r="E72" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F72" s="60" t="s">
+      <c r="F72" s="38" t="s">
         <v>132</v>
       </c>
       <c r="H72" s="9"/>
@@ -3783,41 +3773,41 @@
       <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="67"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="75"/>
       <c r="D73" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="75"/>
+      <c r="F73" s="40"/>
       <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="67"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="75"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="75"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="40"/>
       <c r="H74" s="9"/>
     </row>
     <row r="75" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="4"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="50"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="71"/>
       <c r="D75" s="8"/>
       <c r="E75" s="18"/>
-      <c r="F75" s="75"/>
+      <c r="F75" s="40"/>
       <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:8" ht="119" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="70" t="s">
         <v>134</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -3826,60 +3816,60 @@
       <c r="E76" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F76" s="75"/>
+      <c r="F76" s="40"/>
       <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="4"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="50"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="71"/>
       <c r="D77" s="8" t="s">
         <v>136</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="75"/>
+      <c r="F77" s="40"/>
       <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="60" t="s">
+      <c r="C78" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D78" s="60" t="s">
+      <c r="D78" s="38" t="s">
         <v>138</v>
       </c>
       <c r="E78" s="7"/>
-      <c r="F78" s="75"/>
-      <c r="G78" s="62" t="s">
+      <c r="F78" s="40"/>
+      <c r="G78" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="H78" s="63"/>
+      <c r="H78" s="67"/>
     </row>
     <row r="79" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="64" t="s">
+      <c r="F79" s="39"/>
+      <c r="G79" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="H79" s="65"/>
+      <c r="H79" s="69"/>
     </row>
     <row r="80" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A80" s="10">
         <v>11</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="76" t="s">
+      <c r="C80" s="50" t="s">
         <v>142</v>
       </c>
       <c r="D80" s="10" t="s">
@@ -3891,55 +3881,55 @@
       <c r="F80" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G80" s="41" t="s">
+      <c r="G80" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="42"/>
+      <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A81" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="36"/>
-      <c r="C81" s="77"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="51"/>
       <c r="D81" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="28"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="44"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="59"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="12"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="77"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="51"/>
       <c r="D82" s="15"/>
-      <c r="E82" s="28"/>
+      <c r="E82" s="20"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="44"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="59"/>
     </row>
     <row r="83" spans="1:8" ht="85.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="12"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="78"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="52"/>
       <c r="D83" s="16"/>
       <c r="E83" s="17"/>
       <c r="F83" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G83" s="43"/>
-      <c r="H83" s="44"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="59"/>
     </row>
     <row r="84" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A84" s="12"/>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="C84" s="76" t="s">
+      <c r="C84" s="50" t="s">
         <v>150</v>
       </c>
       <c r="D84" s="10" t="s">
@@ -3949,13 +3939,13 @@
         <v>145</v>
       </c>
       <c r="F84" s="12"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="59"/>
     </row>
     <row r="85" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="12"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="78"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="52"/>
       <c r="D85" s="16" t="s">
         <v>18</v>
       </c>
@@ -3963,15 +3953,15 @@
         <v>12</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="46"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="61"/>
     </row>
     <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A86" s="12"/>
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="76" t="s">
+      <c r="C86" s="50" t="s">
         <v>60</v>
       </c>
       <c r="D86" s="10" t="s">
@@ -3979,31 +3969,31 @@
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="41" t="s">
+      <c r="G86" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H86" s="42"/>
+      <c r="H86" s="57"/>
     </row>
     <row r="87" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="13"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="78"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="52"/>
       <c r="D87" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="13"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="44"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="59"/>
     </row>
     <row r="88" spans="1:8" ht="36" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>12</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="60" t="s">
+      <c r="C88" s="38" t="s">
         <v>156</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -4012,54 +4002,54 @@
       <c r="E88" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F88" s="25" t="s">
+      <c r="F88" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="G88" s="43"/>
-      <c r="H88" s="44"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="59"/>
     </row>
     <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="75"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="40"/>
       <c r="D89" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F89" s="26"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="44"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="59"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="75"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="40"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="44"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="59"/>
     </row>
     <row r="91" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="4"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="61"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="39"/>
       <c r="D91" s="8"/>
       <c r="E91" s="18"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="44"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="59"/>
     </row>
     <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="60" t="s">
+      <c r="C92" s="38" t="s">
         <v>162</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -4068,62 +4058,62 @@
       <c r="E92" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F92" s="26"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="44"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="59"/>
     </row>
     <row r="93" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="4"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="61"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="26"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="46"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="61"/>
     </row>
     <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C94" s="60" t="s">
+      <c r="C94" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E94" s="7"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="29" t="s">
+      <c r="F94" s="64"/>
+      <c r="G94" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="H94" s="30"/>
+      <c r="H94" s="42"/>
     </row>
     <row r="95" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="61"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="39"/>
       <c r="D95" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="8"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="32"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="44"/>
     </row>
     <row r="96" spans="1:8" ht="34" x14ac:dyDescent="0.4">
       <c r="A96" s="10">
         <v>13</v>
       </c>
-      <c r="B96" s="35" t="s">
+      <c r="B96" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C96" s="76" t="s">
+      <c r="C96" s="50" t="s">
         <v>168</v>
       </c>
       <c r="D96" s="10" t="s">
@@ -4132,54 +4122,54 @@
       <c r="E96" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F96" s="38" t="s">
+      <c r="F96" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="G96" s="31"/>
-      <c r="H96" s="32"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="44"/>
     </row>
     <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A97" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="77"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="51"/>
       <c r="D97" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F97" s="39"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="32"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="44"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="12"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="77"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="51"/>
       <c r="D98" s="15"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="32"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="44"/>
     </row>
     <row r="99" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="12"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="78"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="52"/>
       <c r="D99" s="16"/>
       <c r="E99" s="17"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="32"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="44"/>
     </row>
     <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A100" s="12"/>
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="76" t="s">
+      <c r="C100" s="50" t="s">
         <v>60</v>
       </c>
       <c r="D100" s="10" t="s">
@@ -4188,157 +4178,241 @@
       <c r="E100" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F100" s="39"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="32"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="44"/>
     </row>
     <row r="101" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="12"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="78"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="52"/>
       <c r="D101" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F101" s="39"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="32"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="44"/>
     </row>
     <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A102" s="12"/>
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="76" t="s">
+      <c r="C102" s="50" t="s">
         <v>60</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>175</v>
       </c>
       <c r="E102" s="15"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="32"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="44"/>
     </row>
     <row r="103" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="13"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="78"/>
+      <c r="B103" s="49"/>
+      <c r="C103" s="52"/>
       <c r="D103" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E103" s="16"/>
-      <c r="F103" s="40"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="34"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="46"/>
     </row>
     <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>14</v>
       </c>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C104" s="60" t="s">
+      <c r="C104" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E104" s="60" t="s">
+      <c r="E104" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="F104" s="60" t="s">
+      <c r="F104" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="G104" s="29" t="s">
+      <c r="G104" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="H104" s="30"/>
+      <c r="H104" s="42"/>
     </row>
     <row r="105" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="61"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="39"/>
       <c r="D105" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="75"/>
-      <c r="F105" s="75"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="32"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="44"/>
     </row>
     <row r="106" spans="1:8" ht="36" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C106" s="60" t="s">
+      <c r="C106" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E106" s="75"/>
-      <c r="F106" s="75"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="32"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="44"/>
     </row>
     <row r="107" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="4"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="61"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="39"/>
       <c r="D107" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E107" s="75"/>
-      <c r="F107" s="75"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="32"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="44"/>
     </row>
     <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="C108" s="60" t="s">
+      <c r="C108" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E108" s="75"/>
-      <c r="F108" s="75"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="32"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="44"/>
     </row>
     <row r="109" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="5"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="61"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="39"/>
       <c r="D109" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E109" s="61"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="34"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E104:E109"/>
-    <mergeCell ref="F104:F109"/>
-    <mergeCell ref="G104:H109"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="G2:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="F15:F22"/>
+    <mergeCell ref="G15:H22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="G7:H14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="F23:F30"/>
+    <mergeCell ref="G23:G30"/>
+    <mergeCell ref="H23:H30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B31:D34"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="G37:H44"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="G45:H52"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="G53:H58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="G80:H85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="F72:F79"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
     <mergeCell ref="G94:H103"/>
     <mergeCell ref="B96:B99"/>
     <mergeCell ref="C96:C99"/>
@@ -4357,99 +4431,15 @@
     <mergeCell ref="C92:C93"/>
     <mergeCell ref="B94:B95"/>
     <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="G80:H85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="F72:F79"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="G53:H58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="G45:H52"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B31:D34"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="G37:H44"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="F23:F30"/>
-    <mergeCell ref="G23:G30"/>
-    <mergeCell ref="H23:H30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="F15:F22"/>
-    <mergeCell ref="G15:H22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="G7:H14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="G2:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E104:E109"/>
+    <mergeCell ref="F104:F109"/>
+    <mergeCell ref="G104:H109"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>

--- a/Finish_repo/Progress.xlsx
+++ b/Finish_repo/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ching\Desktop\C\cs61b\Finish_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83A341-207E-41AD-8F72-300E43AFCF04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D97492D-E305-4649-AF38-AFED9ACE3A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8DF1F39C-5698-477D-AC65-5D6D325D3D4D}"/>
   </bookViews>
@@ -2139,19 +2139,46 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2170,6 +2197,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2181,6 +2214,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2190,145 +2319,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2648,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED999E0B-2FF1-4E79-B2F3-6B08563A640A}">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2673,19 +2673,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="93"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="63">
+      <c r="C2" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -2697,10 +2697,10 @@
       <c r="F2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="95"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="29" t="s">
         <v>185</v>
       </c>
@@ -2709,8 +2709,8 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="23" t="s">
         <v>10</v>
       </c>
@@ -2718,31 +2718,31 @@
         <v>12</v>
       </c>
       <c r="F3" s="25"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
       <c r="I3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="26"/>
       <c r="E4" s="23"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="97"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
       <c r="I4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="41">
         <v>1.2</v>
       </c>
       <c r="D5" s="21" t="s">
@@ -2752,29 +2752,29 @@
       <c r="F5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="61">
         <v>2.1</v>
       </c>
       <c r="D7" s="21" t="s">
@@ -2786,17 +2786,17 @@
       <c r="F7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="95"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="23" t="s">
         <v>18</v>
       </c>
@@ -2804,23 +2804,23 @@
         <v>22</v>
       </c>
       <c r="F8" s="25"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="12"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="23"/>
       <c r="E9" s="25"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="97"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
     </row>
     <row r="10" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="26"/>
       <c r="E10" s="30" t="s">
         <v>186</v>
@@ -2828,15 +2828,15 @@
       <c r="F10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="96"/>
-      <c r="H10" s="97"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.4">
       <c r="A11" s="12"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="61">
         <v>2.2000000000000002</v>
       </c>
       <c r="D11" s="31" t="s">
@@ -2846,13 +2846,13 @@
         <v>23</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="97"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="55"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="32" t="s">
         <v>18</v>
       </c>
@@ -2860,15 +2860,15 @@
         <v>12</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.4">
       <c r="A13" s="12"/>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="64" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="21" t="s">
@@ -2876,87 +2876,87 @@
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="81"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="41">
         <v>2.5</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="42"/>
+      <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="23" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2965,60 +2965,60 @@
       <c r="E19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="71"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="41">
         <v>4.0999999999999996</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
     </row>
     <row r="22" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
         <v>4</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="61">
         <v>4.2</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -3027,13 +3027,13 @@
       <c r="E23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="61" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3041,44 +3041,44 @@
       <c r="A24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="54"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="12"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="15"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="55"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A27" s="12"/>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="61">
         <v>4.3</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -3087,65 +3087,65 @@
       <c r="E27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A29" s="12"/>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="64" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="13"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="16"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>5</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="41" t="s">
         <v>58</v>
       </c>
       <c r="H31" s="9"/>
@@ -3154,39 +3154,39 @@
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
       <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="64"/>
+      <c r="F32" s="42"/>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="64"/>
+      <c r="F33" s="42"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="4"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="64"/>
+      <c r="F34" s="42"/>
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="75" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -3195,66 +3195,66 @@
       <c r="E35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="66" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="67"/>
+      <c r="H35" s="78"/>
     </row>
     <row r="36" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="68" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="69"/>
+      <c r="H36" s="80"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="56" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="41" t="s">
+      <c r="F37" s="42"/>
+      <c r="G37" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="42"/>
+      <c r="H37" s="51"/>
     </row>
     <row r="38" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="71"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="53"/>
     </row>
     <row r="39" spans="1:8" ht="68" x14ac:dyDescent="0.4">
       <c r="A39" s="10">
         <v>6</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="64" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -3266,15 +3266,15 @@
       <c r="F39" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="53"/>
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="82"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="15" t="s">
         <v>18</v>
       </c>
@@ -3282,37 +3282,37 @@
         <v>22</v>
       </c>
       <c r="F40" s="20"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="44"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="53"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="12"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="82"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="15"/>
       <c r="E41" s="20"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="53"/>
     </row>
     <row r="42" spans="1:8" ht="68.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="81"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="16"/>
       <c r="E42" s="17"/>
       <c r="F42" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="44"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="53"/>
     </row>
     <row r="43" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A43" s="12"/>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="80" t="s">
+      <c r="C43" s="64" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="10" t="s">
@@ -3322,13 +3322,13 @@
         <v>73</v>
       </c>
       <c r="F43" s="12"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="44"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="53"/>
     </row>
     <row r="44" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="12"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="81"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="16" t="s">
         <v>18</v>
       </c>
@@ -3336,15 +3336,15 @@
         <v>12</v>
       </c>
       <c r="F44" s="12"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="46"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="55"/>
     </row>
     <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.4">
       <c r="A45" s="12"/>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="80" t="s">
+      <c r="C45" s="64" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="10" t="s">
@@ -3352,31 +3352,31 @@
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="57"/>
+      <c r="H45" s="83"/>
     </row>
     <row r="46" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="81"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="59"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="85"/>
     </row>
     <row r="47" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>7</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -3388,15 +3388,15 @@
       <c r="F47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G47" s="58"/>
-      <c r="H47" s="59"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="85"/>
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="75"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="88"/>
       <c r="D48" s="7" t="s">
         <v>18</v>
       </c>
@@ -3404,37 +3404,37 @@
         <v>22</v>
       </c>
       <c r="F48" s="20"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="59"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="85"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="75"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="88"/>
       <c r="D49" s="7"/>
       <c r="E49" s="20"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="59"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="85"/>
     </row>
     <row r="50" spans="1:8" ht="119.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="4"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="71"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="8"/>
       <c r="E50" s="18"/>
       <c r="F50" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G50" s="58"/>
-      <c r="H50" s="59"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="85"/>
     </row>
     <row r="51" spans="1:8" ht="119" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="70" t="s">
+      <c r="C51" s="56" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -3444,13 +3444,13 @@
         <v>87</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="59"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="85"/>
     </row>
     <row r="52" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="4"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="8" t="s">
         <v>18</v>
       </c>
@@ -3458,15 +3458,15 @@
         <v>12</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="61"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="87"/>
     </row>
     <row r="53" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="56" t="s">
         <v>94</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -3474,31 +3474,31 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="42"/>
+      <c r="H53" s="51"/>
     </row>
     <row r="54" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="44"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="53"/>
     </row>
     <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A55" s="10">
         <v>8</v>
       </c>
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="80" t="s">
+      <c r="C55" s="64" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="10" t="s">
@@ -3510,15 +3510,15 @@
       <c r="F55" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G55" s="43"/>
-      <c r="H55" s="44"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="53"/>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="82"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="81"/>
       <c r="D56" s="15" t="s">
         <v>18</v>
       </c>
@@ -3526,37 +3526,37 @@
         <v>22</v>
       </c>
       <c r="F56" s="20"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="44"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="53"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="12"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="82"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="81"/>
       <c r="D57" s="15"/>
       <c r="E57" s="20"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="53"/>
     </row>
     <row r="58" spans="1:8" ht="102.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="12"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="81"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="16"/>
       <c r="E58" s="17"/>
       <c r="F58" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="46"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="55"/>
     </row>
     <row r="59" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A59" s="12"/>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="80" t="s">
+      <c r="C59" s="64" t="s">
         <v>105</v>
       </c>
       <c r="D59" s="10" t="s">
@@ -3566,15 +3566,15 @@
         <v>101</v>
       </c>
       <c r="F59" s="12"/>
-      <c r="G59" s="56" t="s">
+      <c r="G59" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="H59" s="57"/>
+      <c r="H59" s="83"/>
     </row>
     <row r="60" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="12"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="81"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="16" t="s">
         <v>18</v>
       </c>
@@ -3582,17 +3582,17 @@
         <v>12</v>
       </c>
       <c r="F60" s="12"/>
-      <c r="G60" s="58" t="s">
+      <c r="G60" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="59"/>
+      <c r="H60" s="85"/>
     </row>
     <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A61" s="12"/>
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="80" t="s">
+      <c r="C61" s="64" t="s">
         <v>111</v>
       </c>
       <c r="D61" s="10" t="s">
@@ -3600,31 +3600,31 @@
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="58" t="s">
+      <c r="G61" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="H61" s="59"/>
+      <c r="H61" s="85"/>
     </row>
     <row r="62" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="13"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="81"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="13"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="77"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="90"/>
     </row>
     <row r="63" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>9</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C63" s="56" t="s">
         <v>114</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -3636,15 +3636,15 @@
       <c r="F63" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G63" s="76"/>
-      <c r="H63" s="77"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="90"/>
     </row>
     <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="75"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="88"/>
       <c r="D64" s="7" t="s">
         <v>18</v>
       </c>
@@ -3652,37 +3652,37 @@
         <v>22</v>
       </c>
       <c r="F64" s="20"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="77"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="90"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
-      <c r="B65" s="62"/>
-      <c r="C65" s="75"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="88"/>
       <c r="D65" s="7"/>
       <c r="E65" s="20"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="77"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="90"/>
     </row>
     <row r="66" spans="1:8" ht="68.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="4"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="71"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="8"/>
       <c r="E66" s="18"/>
       <c r="F66" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G66" s="76"/>
-      <c r="H66" s="77"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="90"/>
     </row>
     <row r="67" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="56" t="s">
         <v>121</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -3692,13 +3692,13 @@
         <v>117</v>
       </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="77"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="90"/>
     </row>
     <row r="68" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="4"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="71"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
@@ -3706,15 +3706,15 @@
         <v>12</v>
       </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="77"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="90"/>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="70" t="s">
+      <c r="C69" s="56" t="s">
         <v>124</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -3722,40 +3722,40 @@
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="77"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="90"/>
     </row>
     <row r="70" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="71"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="57"/>
       <c r="D70" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="78"/>
-      <c r="H70" s="79"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="92"/>
     </row>
     <row r="71" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="74"/>
+      <c r="B71" s="97"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="98"/>
       <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>10</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="70" t="s">
+      <c r="C72" s="56" t="s">
         <v>128</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -3764,7 +3764,7 @@
       <c r="E72" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F72" s="38" t="s">
+      <c r="F72" s="75" t="s">
         <v>132</v>
       </c>
       <c r="H72" s="9"/>
@@ -3773,41 +3773,41 @@
       <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="62"/>
-      <c r="C73" s="75"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="88"/>
       <c r="D73" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="40"/>
+      <c r="F73" s="99"/>
       <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="75"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="88"/>
       <c r="D74" s="7"/>
       <c r="E74" s="20"/>
-      <c r="F74" s="40"/>
+      <c r="F74" s="99"/>
       <c r="H74" s="9"/>
     </row>
     <row r="75" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="4"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="71"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="8"/>
       <c r="E75" s="18"/>
-      <c r="F75" s="40"/>
+      <c r="F75" s="99"/>
       <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:8" ht="119" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="70" t="s">
+      <c r="C76" s="56" t="s">
         <v>134</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -3816,60 +3816,60 @@
       <c r="E76" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F76" s="40"/>
+      <c r="F76" s="99"/>
       <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="4"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="71"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="8" t="s">
         <v>136</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="40"/>
+      <c r="F77" s="99"/>
       <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="75" t="s">
         <v>138</v>
       </c>
       <c r="E78" s="7"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="66" t="s">
+      <c r="F78" s="99"/>
+      <c r="G78" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="H78" s="67"/>
+      <c r="H78" s="78"/>
     </row>
     <row r="79" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="76"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="68" t="s">
+      <c r="F79" s="76"/>
+      <c r="G79" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="H79" s="69"/>
+      <c r="H79" s="80"/>
     </row>
     <row r="80" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A80" s="10">
         <v>11</v>
       </c>
-      <c r="B80" s="47" t="s">
+      <c r="B80" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="50" t="s">
+      <c r="C80" s="93" t="s">
         <v>142</v>
       </c>
       <c r="D80" s="10" t="s">
@@ -3881,17 +3881,17 @@
       <c r="F80" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G80" s="56" t="s">
+      <c r="G80" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="57"/>
+      <c r="H80" s="83"/>
     </row>
     <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A81" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="48"/>
-      <c r="C81" s="51"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="94"/>
       <c r="D81" s="15" t="s">
         <v>18</v>
       </c>
@@ -3899,37 +3899,37 @@
         <v>22</v>
       </c>
       <c r="F81" s="20"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="59"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="85"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="12"/>
-      <c r="B82" s="48"/>
-      <c r="C82" s="51"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="94"/>
       <c r="D82" s="15"/>
       <c r="E82" s="20"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="59"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="85"/>
     </row>
     <row r="83" spans="1:8" ht="85.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="12"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="52"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="95"/>
       <c r="D83" s="16"/>
       <c r="E83" s="17"/>
       <c r="F83" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G83" s="58"/>
-      <c r="H83" s="59"/>
+      <c r="G83" s="84"/>
+      <c r="H83" s="85"/>
     </row>
     <row r="84" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A84" s="12"/>
-      <c r="B84" s="47" t="s">
+      <c r="B84" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="C84" s="50" t="s">
+      <c r="C84" s="93" t="s">
         <v>150</v>
       </c>
       <c r="D84" s="10" t="s">
@@ -3939,13 +3939,13 @@
         <v>145</v>
       </c>
       <c r="F84" s="12"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="59"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="85"/>
     </row>
     <row r="85" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="12"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="52"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="95"/>
       <c r="D85" s="16" t="s">
         <v>18</v>
       </c>
@@ -3953,15 +3953,15 @@
         <v>12</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="61"/>
+      <c r="G85" s="86"/>
+      <c r="H85" s="87"/>
     </row>
     <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A86" s="12"/>
-      <c r="B86" s="47" t="s">
+      <c r="B86" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="50" t="s">
+      <c r="C86" s="93" t="s">
         <v>60</v>
       </c>
       <c r="D86" s="10" t="s">
@@ -3969,31 +3969,31 @@
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="56" t="s">
+      <c r="G86" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="H86" s="57"/>
+      <c r="H86" s="83"/>
     </row>
     <row r="87" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="13"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="52"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="95"/>
       <c r="D87" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="13"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="59"/>
+      <c r="G87" s="84"/>
+      <c r="H87" s="85"/>
     </row>
     <row r="88" spans="1:8" ht="36" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>12</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="75" t="s">
         <v>156</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -4002,54 +4002,54 @@
       <c r="E88" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F88" s="63" t="s">
+      <c r="F88" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="G88" s="58"/>
-      <c r="H88" s="59"/>
+      <c r="G88" s="84"/>
+      <c r="H88" s="85"/>
     </row>
     <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="62"/>
-      <c r="C89" s="40"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="99"/>
       <c r="D89" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F89" s="64"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="59"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="85"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
-      <c r="B90" s="62"/>
-      <c r="C90" s="40"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="99"/>
       <c r="D90" s="7"/>
       <c r="E90" s="20"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="59"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="84"/>
+      <c r="H90" s="85"/>
     </row>
     <row r="91" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="4"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="39"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="76"/>
       <c r="D91" s="8"/>
       <c r="E91" s="18"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="59"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="84"/>
+      <c r="H91" s="85"/>
     </row>
     <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="38" t="s">
+      <c r="C92" s="75" t="s">
         <v>162</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -4058,62 +4058,62 @@
       <c r="E92" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F92" s="64"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="59"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="84"/>
+      <c r="H92" s="85"/>
     </row>
     <row r="93" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="4"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="39"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="76"/>
       <c r="D93" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="64"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="61"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="86"/>
+      <c r="H93" s="87"/>
     </row>
     <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="C94" s="38" t="s">
+      <c r="C94" s="75" t="s">
         <v>60</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E94" s="7"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="41" t="s">
+      <c r="F94" s="42"/>
+      <c r="G94" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="H94" s="42"/>
+      <c r="H94" s="51"/>
     </row>
     <row r="95" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="39"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="76"/>
       <c r="D95" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="8"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="44"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="52"/>
+      <c r="H95" s="53"/>
     </row>
     <row r="96" spans="1:8" ht="34" x14ac:dyDescent="0.4">
       <c r="A96" s="10">
         <v>13</v>
       </c>
-      <c r="B96" s="47" t="s">
+      <c r="B96" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="C96" s="50" t="s">
+      <c r="C96" s="93" t="s">
         <v>168</v>
       </c>
       <c r="D96" s="10" t="s">
@@ -4122,54 +4122,54 @@
       <c r="E96" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F96" s="53" t="s">
+      <c r="F96" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="G96" s="43"/>
-      <c r="H96" s="44"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="53"/>
     </row>
     <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A97" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="48"/>
-      <c r="C97" s="51"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="94"/>
       <c r="D97" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F97" s="54"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="44"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="53"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="12"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="51"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="94"/>
       <c r="D98" s="15"/>
       <c r="E98" s="20"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="44"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="53"/>
     </row>
     <row r="99" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="12"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="52"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="95"/>
       <c r="D99" s="16"/>
       <c r="E99" s="17"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="44"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
     </row>
     <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A100" s="12"/>
-      <c r="B100" s="47" t="s">
+      <c r="B100" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="50" t="s">
+      <c r="C100" s="93" t="s">
         <v>60</v>
       </c>
       <c r="D100" s="10" t="s">
@@ -4178,148 +4178,247 @@
       <c r="E100" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F100" s="54"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="44"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="53"/>
     </row>
     <row r="101" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="12"/>
-      <c r="B101" s="49"/>
-      <c r="C101" s="52"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="95"/>
       <c r="D101" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F101" s="54"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="44"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="53"/>
     </row>
     <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A102" s="12"/>
-      <c r="B102" s="47" t="s">
+      <c r="B102" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="50" t="s">
+      <c r="C102" s="93" t="s">
         <v>60</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>175</v>
       </c>
       <c r="E102" s="15"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="44"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="53"/>
     </row>
     <row r="103" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="13"/>
-      <c r="B103" s="49"/>
-      <c r="C103" s="52"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="95"/>
       <c r="D103" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E103" s="16"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="46"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="55"/>
     </row>
     <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>14</v>
       </c>
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="75" t="s">
         <v>60</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E104" s="38" t="s">
+      <c r="E104" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="F104" s="38" t="s">
+      <c r="F104" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="G104" s="41" t="s">
+      <c r="G104" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="H104" s="42"/>
+      <c r="H104" s="51"/>
     </row>
     <row r="105" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="37"/>
-      <c r="C105" s="39"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="76"/>
       <c r="D105" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="40"/>
-      <c r="F105" s="40"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="44"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="53"/>
     </row>
     <row r="106" spans="1:8" ht="36" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="C106" s="38" t="s">
+      <c r="C106" s="75" t="s">
         <v>60</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E106" s="40"/>
-      <c r="F106" s="40"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="44"/>
+      <c r="E106" s="99"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="53"/>
     </row>
     <row r="107" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="4"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="39"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="76"/>
       <c r="D107" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E107" s="40"/>
-      <c r="F107" s="40"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="44"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="99"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="53"/>
     </row>
     <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="C108" s="38" t="s">
+      <c r="C108" s="75" t="s">
         <v>60</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E108" s="40"/>
-      <c r="F108" s="40"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="44"/>
+      <c r="E108" s="99"/>
+      <c r="F108" s="99"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="53"/>
     </row>
     <row r="109" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="5"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="39"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="76"/>
       <c r="D109" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E109" s="39"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="46"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E104:E109"/>
+    <mergeCell ref="F104:F109"/>
+    <mergeCell ref="G104:H109"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="G94:H103"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="F96:F103"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="G86:H93"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="F88:F95"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="G80:H85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="F72:F79"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="G45:H52"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="G53:H58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B31:D34"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="G37:H44"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="F23:F30"/>
+    <mergeCell ref="G23:G30"/>
+    <mergeCell ref="H23:H30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -4341,105 +4440,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="F23:F30"/>
-    <mergeCell ref="G23:G30"/>
-    <mergeCell ref="H23:H30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B31:D34"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="G37:H44"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="G45:H52"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="G53:H58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="G80:H85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="F72:F79"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="G94:H103"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="F96:F103"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="G86:H93"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="F88:F95"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E104:E109"/>
-    <mergeCell ref="F104:F109"/>
-    <mergeCell ref="G104:H109"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>

--- a/Finish_repo/Progress.xlsx
+++ b/Finish_repo/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ching\Desktop\C\cs61b\Finish_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D97492D-E305-4649-AF38-AFED9ACE3A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87711D73-E1E8-4F5E-806C-EC562215C8C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8DF1F39C-5698-477D-AC65-5D6D325D3D4D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="191">
   <si>
     <t>Week</t>
   </si>
@@ -1684,6 +1684,14 @@
   </si>
   <si>
     <t>Proj0的extra</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5=&gt;1.5個lec</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小時光lec</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2646,15 +2654,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED999E0B-2FF1-4E79-B2F3-6B08563A640A}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="36.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2678,7 +2686,7 @@
       </c>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="68" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2704,8 +2712,11 @@
       <c r="I2" s="29" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.4">
+      <c r="K2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2724,7 +2735,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="40"/>
       <c r="C4" s="43"/>
@@ -2737,7 +2748,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="38" t="s">
         <v>16</v>
@@ -2754,8 +2765,15 @@
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K5">
+        <f>32/1.5*5</f>
+        <v>106.66666666666666</v>
+      </c>
+      <c r="L5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="40"/>
       <c r="C6" s="43"/>
@@ -2767,7 +2785,7 @@
       <c r="G6" s="48"/>
       <c r="H6" s="49"/>
     </row>
-    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="68" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>2</v>
       </c>
@@ -2791,7 +2809,7 @@
       </c>
       <c r="H7" s="45"/>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2807,7 +2825,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="12"/>
       <c r="B9" s="59"/>
       <c r="C9" s="62"/>
@@ -2817,7 +2835,7 @@
       <c r="G9" s="46"/>
       <c r="H9" s="47"/>
     </row>
-    <row r="10" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" s="60"/>
       <c r="C10" s="63"/>
@@ -2831,7 +2849,7 @@
       <c r="G10" s="46"/>
       <c r="H10" s="47"/>
     </row>
-    <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="102" x14ac:dyDescent="0.4">
       <c r="A11" s="12"/>
       <c r="B11" s="58" t="s">
         <v>27</v>
@@ -2849,7 +2867,7 @@
       <c r="G11" s="46"/>
       <c r="H11" s="47"/>
     </row>
-    <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
       <c r="B12" s="60"/>
       <c r="C12" s="63"/>
@@ -2863,7 +2881,7 @@
       <c r="G12" s="46"/>
       <c r="H12" s="47"/>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.4">
       <c r="A13" s="12"/>
       <c r="B13" s="58" t="s">
         <v>29</v>
@@ -2879,7 +2897,7 @@
       <c r="G13" s="46"/>
       <c r="H13" s="47"/>
     </row>
-    <row r="14" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
       <c r="B14" s="60"/>
       <c r="C14" s="65"/>
@@ -2891,7 +2909,7 @@
       <c r="G14" s="48"/>
       <c r="H14" s="49"/>
     </row>
-    <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -2915,7 +2933,7 @@
       </c>
       <c r="H15" s="51"/>
     </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -2959,7 +2977,7 @@
       <c r="C19" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -2973,7 +2991,7 @@
       <c r="A20" s="4"/>
       <c r="B20" s="40"/>
       <c r="C20" s="57"/>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -2991,7 +3009,7 @@
       <c r="C21" s="41">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="7"/>
@@ -3003,7 +3021,7 @@
       <c r="A22" s="5"/>
       <c r="B22" s="40"/>
       <c r="C22" s="43"/>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="8"/>

--- a/Finish_repo/Progress.xlsx
+++ b/Finish_repo/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ching\Desktop\C\cs61b\Finish_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87711D73-E1E8-4F5E-806C-EC562215C8C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1C1D02-500C-4A8B-833E-037EE1E59355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8DF1F39C-5698-477D-AC65-5D6D325D3D4D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="193">
   <si>
     <t>Week</t>
   </si>
@@ -1692,6 +1692,14 @@
   </si>
   <si>
     <t>小時光lec</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab3有兩個un</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab3對答案</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1767,7 +1775,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1810,6 +1818,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -2038,7 +2052,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2147,21 +2161,87 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2171,6 +2251,90 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2189,155 +2353,17 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2656,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED999E0B-2FF1-4E79-B2F3-6B08563A640A}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2681,19 +2707,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:12" ht="68" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="63">
         <v>1.1000000000000001</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -2705,10 +2731,10 @@
       <c r="F2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="45"/>
+      <c r="H2" s="95"/>
       <c r="I2" s="29" t="s">
         <v>185</v>
       </c>
@@ -2720,8 +2746,8 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="23" t="s">
         <v>10</v>
       </c>
@@ -2729,31 +2755,31 @@
         <v>12</v>
       </c>
       <c r="F3" s="25"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="26"/>
       <c r="E4" s="23"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" t="s">
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="103" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="63">
         <v>1.2</v>
       </c>
       <c r="D5" s="21" t="s">
@@ -2763,8 +2789,11 @@
       <c r="F5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="103" t="s">
+        <v>191</v>
+      </c>
       <c r="K5">
         <f>32/1.5*5</f>
         <v>106.66666666666666</v>
@@ -2775,24 +2804,27 @@
     </row>
     <row r="6" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="103" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="68" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="53">
         <v>2.1</v>
       </c>
       <c r="D7" s="21" t="s">
@@ -2804,17 +2836,17 @@
       <c r="F7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="45"/>
+      <c r="H7" s="95"/>
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="23" t="s">
         <v>18</v>
       </c>
@@ -2822,23 +2854,23 @@
         <v>22</v>
       </c>
       <c r="F8" s="25"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="12"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="23"/>
       <c r="E9" s="25"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="63"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="26"/>
       <c r="E10" s="30" t="s">
         <v>186</v>
@@ -2846,15 +2878,15 @@
       <c r="F10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="97"/>
     </row>
     <row r="11" spans="1:12" ht="102" x14ac:dyDescent="0.4">
       <c r="A11" s="12"/>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="53">
         <v>2.2000000000000002</v>
       </c>
       <c r="D11" s="31" t="s">
@@ -2864,13 +2896,13 @@
         <v>23</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="97"/>
     </row>
     <row r="12" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="32" t="s">
         <v>18</v>
       </c>
@@ -2878,15 +2910,15 @@
         <v>12</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.4">
       <c r="A13" s="12"/>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="76" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="21" t="s">
@@ -2894,29 +2926,29 @@
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="97"/>
     </row>
     <row r="14" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
     </row>
     <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="63">
         <v>2.5</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -2925,56 +2957,56 @@
       <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="23" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="23"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="26"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="21" t="s">
@@ -2983,60 +3015,60 @@
       <c r="E19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="63">
         <v>4.0999999999999996</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
         <v>4</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="53">
         <v>4.2</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -3045,13 +3077,13 @@
       <c r="E23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="53" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3059,44 +3091,44 @@
       <c r="A24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="12"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="62"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="15"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A27" s="12"/>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="53">
         <v>4.3</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -3105,65 +3137,65 @@
       <c r="E27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="63"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A29" s="12"/>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="13"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="65"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="16"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>5</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="63" t="s">
         <v>58</v>
       </c>
       <c r="H31" s="9"/>
@@ -3172,39 +3204,39 @@
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="64"/>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="42"/>
+      <c r="F33" s="64"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="4"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="42"/>
+      <c r="F34" s="64"/>
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -3213,66 +3245,66 @@
       <c r="E35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="77" t="s">
+      <c r="F35" s="64"/>
+      <c r="G35" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="78"/>
+      <c r="H35" s="67"/>
     </row>
     <row r="36" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="76"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="79" t="s">
+      <c r="F36" s="64"/>
+      <c r="G36" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="80"/>
+      <c r="H36" s="69"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="70" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="50" t="s">
+      <c r="F37" s="64"/>
+      <c r="G37" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="51"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="57"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="53"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
     </row>
     <row r="39" spans="1:8" ht="68" x14ac:dyDescent="0.4">
       <c r="A39" s="10">
         <v>6</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="76" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -3284,15 +3316,15 @@
       <c r="F39" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="52"/>
-      <c r="H39" s="53"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="81"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="15" t="s">
         <v>18</v>
       </c>
@@ -3300,37 +3332,37 @@
         <v>22</v>
       </c>
       <c r="F40" s="20"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="53"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="12"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="81"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="15"/>
       <c r="E41" s="20"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="53"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" ht="68.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="16"/>
       <c r="E42" s="17"/>
       <c r="F42" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="52"/>
-      <c r="H42" s="53"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
     </row>
     <row r="43" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A43" s="12"/>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="76" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="10" t="s">
@@ -3340,13 +3372,13 @@
         <v>73</v>
       </c>
       <c r="F43" s="12"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="53"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="44"/>
     </row>
     <row r="44" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="12"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="65"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="77"/>
       <c r="D44" s="16" t="s">
         <v>18</v>
       </c>
@@ -3354,15 +3386,15 @@
         <v>12</v>
       </c>
       <c r="F44" s="12"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="55"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
     </row>
     <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.4">
       <c r="A45" s="12"/>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="76" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="10" t="s">
@@ -3370,31 +3402,31 @@
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="82" t="s">
+      <c r="G45" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="83"/>
+      <c r="H45" s="57"/>
     </row>
     <row r="46" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="65"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="77"/>
       <c r="D46" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="85"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="59"/>
     </row>
     <row r="47" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>7</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="70" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -3406,15 +3438,15 @@
       <c r="F47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G47" s="84"/>
-      <c r="H47" s="85"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="59"/>
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="88"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="7" t="s">
         <v>18</v>
       </c>
@@ -3422,37 +3454,37 @@
         <v>22</v>
       </c>
       <c r="F48" s="20"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="85"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="59"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="88"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="75"/>
       <c r="D49" s="7"/>
       <c r="E49" s="20"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="85"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="1:8" ht="119.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="4"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="57"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="71"/>
       <c r="D50" s="8"/>
       <c r="E50" s="18"/>
       <c r="F50" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G50" s="84"/>
-      <c r="H50" s="85"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="59"/>
     </row>
     <row r="51" spans="1:8" ht="119" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="70" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -3462,13 +3494,13 @@
         <v>87</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="85"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="59"/>
     </row>
     <row r="52" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="4"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="57"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="8" t="s">
         <v>18</v>
       </c>
@@ -3476,15 +3508,15 @@
         <v>12</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="87"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="61"/>
     </row>
     <row r="53" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="70" t="s">
         <v>94</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -3492,31 +3524,31 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="50" t="s">
+      <c r="G53" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="51"/>
+      <c r="H53" s="42"/>
     </row>
     <row r="54" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="57"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="71"/>
       <c r="D54" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="53"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="44"/>
     </row>
     <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A55" s="10">
         <v>8</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="76" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="10" t="s">
@@ -3528,15 +3560,15 @@
       <c r="F55" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G55" s="52"/>
-      <c r="H55" s="53"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="44"/>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="81"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="82"/>
       <c r="D56" s="15" t="s">
         <v>18</v>
       </c>
@@ -3544,37 +3576,37 @@
         <v>22</v>
       </c>
       <c r="F56" s="20"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="53"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="44"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="12"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="81"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="15"/>
       <c r="E57" s="20"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="53"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" ht="102.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="12"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="65"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="77"/>
       <c r="D58" s="16"/>
       <c r="E58" s="17"/>
       <c r="F58" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="54"/>
-      <c r="H58" s="55"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="46"/>
     </row>
     <row r="59" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A59" s="12"/>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="64" t="s">
+      <c r="C59" s="76" t="s">
         <v>105</v>
       </c>
       <c r="D59" s="10" t="s">
@@ -3584,15 +3616,15 @@
         <v>101</v>
       </c>
       <c r="F59" s="12"/>
-      <c r="G59" s="82" t="s">
+      <c r="G59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="H59" s="83"/>
+      <c r="H59" s="57"/>
     </row>
     <row r="60" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="12"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="65"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="77"/>
       <c r="D60" s="16" t="s">
         <v>18</v>
       </c>
@@ -3600,17 +3632,17 @@
         <v>12</v>
       </c>
       <c r="F60" s="12"/>
-      <c r="G60" s="84" t="s">
+      <c r="G60" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="85"/>
+      <c r="H60" s="59"/>
     </row>
     <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A61" s="12"/>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="76" t="s">
         <v>111</v>
       </c>
       <c r="D61" s="10" t="s">
@@ -3618,31 +3650,31 @@
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="84" t="s">
+      <c r="G61" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H61" s="85"/>
+      <c r="H61" s="59"/>
     </row>
     <row r="62" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="13"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="65"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="77"/>
       <c r="D62" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="13"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="90"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="79"/>
     </row>
     <row r="63" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>9</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="70" t="s">
         <v>114</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -3654,15 +3686,15 @@
       <c r="F63" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G63" s="89"/>
-      <c r="H63" s="90"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="79"/>
     </row>
     <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="88"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="75"/>
       <c r="D64" s="7" t="s">
         <v>18</v>
       </c>
@@ -3670,37 +3702,37 @@
         <v>22</v>
       </c>
       <c r="F64" s="20"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="90"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="79"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="88"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="75"/>
       <c r="D65" s="7"/>
       <c r="E65" s="20"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="90"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="79"/>
     </row>
     <row r="66" spans="1:8" ht="68.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="4"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="57"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="8"/>
       <c r="E66" s="18"/>
       <c r="F66" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G66" s="89"/>
-      <c r="H66" s="90"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="79"/>
     </row>
     <row r="67" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="70" t="s">
         <v>121</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -3710,13 +3742,13 @@
         <v>117</v>
       </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="90"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="79"/>
     </row>
     <row r="68" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="4"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="57"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="71"/>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
@@ -3724,15 +3756,15 @@
         <v>12</v>
       </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="90"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="79"/>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="70" t="s">
         <v>124</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -3740,40 +3772,40 @@
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="90"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="79"/>
     </row>
     <row r="70" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="57"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="71"/>
       <c r="D70" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="91"/>
-      <c r="H70" s="92"/>
+      <c r="G70" s="80"/>
+      <c r="H70" s="81"/>
     </row>
     <row r="71" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="96" t="s">
+      <c r="A71" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="97"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="98"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="74"/>
       <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>10</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="56" t="s">
+      <c r="C72" s="70" t="s">
         <v>128</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -3782,7 +3814,7 @@
       <c r="E72" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F72" s="75" t="s">
+      <c r="F72" s="38" t="s">
         <v>132</v>
       </c>
       <c r="H72" s="9"/>
@@ -3791,41 +3823,41 @@
       <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="88"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="75"/>
       <c r="D73" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="99"/>
+      <c r="F73" s="40"/>
       <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="88"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="75"/>
       <c r="D74" s="7"/>
       <c r="E74" s="20"/>
-      <c r="F74" s="99"/>
+      <c r="F74" s="40"/>
       <c r="H74" s="9"/>
     </row>
     <row r="75" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="4"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="57"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="71"/>
       <c r="D75" s="8"/>
       <c r="E75" s="18"/>
-      <c r="F75" s="99"/>
+      <c r="F75" s="40"/>
       <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:8" ht="119" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="56" t="s">
+      <c r="C76" s="70" t="s">
         <v>134</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -3834,60 +3866,60 @@
       <c r="E76" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F76" s="99"/>
+      <c r="F76" s="40"/>
       <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="4"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="57"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="71"/>
       <c r="D77" s="8" t="s">
         <v>136</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="99"/>
+      <c r="F77" s="40"/>
       <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="75" t="s">
+      <c r="C78" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D78" s="75" t="s">
+      <c r="D78" s="38" t="s">
         <v>138</v>
       </c>
       <c r="E78" s="7"/>
-      <c r="F78" s="99"/>
-      <c r="G78" s="77" t="s">
+      <c r="F78" s="40"/>
+      <c r="G78" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="H78" s="78"/>
+      <c r="H78" s="67"/>
     </row>
     <row r="79" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="76"/>
-      <c r="D79" s="76"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="79" t="s">
+      <c r="F79" s="39"/>
+      <c r="G79" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="H79" s="80"/>
+      <c r="H79" s="69"/>
     </row>
     <row r="80" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A80" s="10">
         <v>11</v>
       </c>
-      <c r="B80" s="58" t="s">
+      <c r="B80" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="93" t="s">
+      <c r="C80" s="50" t="s">
         <v>142</v>
       </c>
       <c r="D80" s="10" t="s">
@@ -3899,17 +3931,17 @@
       <c r="F80" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G80" s="82" t="s">
+      <c r="G80" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="83"/>
+      <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A81" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="59"/>
-      <c r="C81" s="94"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="51"/>
       <c r="D81" s="15" t="s">
         <v>18</v>
       </c>
@@ -3917,37 +3949,37 @@
         <v>22</v>
       </c>
       <c r="F81" s="20"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="85"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="59"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="12"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="94"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="51"/>
       <c r="D82" s="15"/>
       <c r="E82" s="20"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="85"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="59"/>
     </row>
     <row r="83" spans="1:8" ht="85.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="12"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="95"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="52"/>
       <c r="D83" s="16"/>
       <c r="E83" s="17"/>
       <c r="F83" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G83" s="84"/>
-      <c r="H83" s="85"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="59"/>
     </row>
     <row r="84" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A84" s="12"/>
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="C84" s="93" t="s">
+      <c r="C84" s="50" t="s">
         <v>150</v>
       </c>
       <c r="D84" s="10" t="s">
@@ -3957,13 +3989,13 @@
         <v>145</v>
       </c>
       <c r="F84" s="12"/>
-      <c r="G84" s="84"/>
-      <c r="H84" s="85"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="59"/>
     </row>
     <row r="85" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="12"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="95"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="52"/>
       <c r="D85" s="16" t="s">
         <v>18</v>
       </c>
@@ -3971,15 +4003,15 @@
         <v>12</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="86"/>
-      <c r="H85" s="87"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="61"/>
     </row>
     <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A86" s="12"/>
-      <c r="B86" s="58" t="s">
+      <c r="B86" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="93" t="s">
+      <c r="C86" s="50" t="s">
         <v>60</v>
       </c>
       <c r="D86" s="10" t="s">
@@ -3987,31 +4019,31 @@
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="82" t="s">
+      <c r="G86" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H86" s="83"/>
+      <c r="H86" s="57"/>
     </row>
     <row r="87" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="13"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="95"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="52"/>
       <c r="D87" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="13"/>
-      <c r="G87" s="84"/>
-      <c r="H87" s="85"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="59"/>
     </row>
     <row r="88" spans="1:8" ht="36" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>12</v>
       </c>
-      <c r="B88" s="38" t="s">
+      <c r="B88" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="75" t="s">
+      <c r="C88" s="38" t="s">
         <v>156</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -4020,54 +4052,54 @@
       <c r="E88" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F88" s="41" t="s">
+      <c r="F88" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="G88" s="84"/>
-      <c r="H88" s="85"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="59"/>
     </row>
     <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="99"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="40"/>
       <c r="D89" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F89" s="42"/>
-      <c r="G89" s="84"/>
-      <c r="H89" s="85"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="59"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="99"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="40"/>
       <c r="D90" s="7"/>
       <c r="E90" s="20"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="84"/>
-      <c r="H90" s="85"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="59"/>
     </row>
     <row r="91" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="4"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="76"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="39"/>
       <c r="D91" s="8"/>
       <c r="E91" s="18"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="84"/>
-      <c r="H91" s="85"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="59"/>
     </row>
     <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="75" t="s">
+      <c r="C92" s="38" t="s">
         <v>162</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -4076,62 +4108,62 @@
       <c r="E92" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F92" s="42"/>
-      <c r="G92" s="84"/>
-      <c r="H92" s="85"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="59"/>
     </row>
     <row r="93" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="4"/>
-      <c r="B93" s="40"/>
-      <c r="C93" s="76"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="42"/>
-      <c r="G93" s="86"/>
-      <c r="H93" s="87"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="61"/>
     </row>
     <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
-      <c r="B94" s="38" t="s">
+      <c r="B94" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C94" s="75" t="s">
+      <c r="C94" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E94" s="7"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="50" t="s">
+      <c r="F94" s="64"/>
+      <c r="G94" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="H94" s="51"/>
+      <c r="H94" s="42"/>
     </row>
     <row r="95" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="76"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="39"/>
       <c r="D95" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="8"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="53"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="44"/>
     </row>
     <row r="96" spans="1:8" ht="34" x14ac:dyDescent="0.4">
       <c r="A96" s="10">
         <v>13</v>
       </c>
-      <c r="B96" s="58" t="s">
+      <c r="B96" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C96" s="93" t="s">
+      <c r="C96" s="50" t="s">
         <v>168</v>
       </c>
       <c r="D96" s="10" t="s">
@@ -4140,54 +4172,54 @@
       <c r="E96" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F96" s="61" t="s">
+      <c r="F96" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="G96" s="52"/>
-      <c r="H96" s="53"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="44"/>
     </row>
     <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A97" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="59"/>
-      <c r="C97" s="94"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="51"/>
       <c r="D97" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F97" s="62"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="53"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="44"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="12"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="94"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="51"/>
       <c r="D98" s="15"/>
       <c r="E98" s="20"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="53"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="44"/>
     </row>
     <row r="99" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="12"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="95"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="52"/>
       <c r="D99" s="16"/>
       <c r="E99" s="17"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="53"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="44"/>
     </row>
     <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A100" s="12"/>
-      <c r="B100" s="58" t="s">
+      <c r="B100" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="93" t="s">
+      <c r="C100" s="50" t="s">
         <v>60</v>
       </c>
       <c r="D100" s="10" t="s">
@@ -4196,247 +4228,148 @@
       <c r="E100" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F100" s="62"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="53"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="44"/>
     </row>
     <row r="101" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="12"/>
-      <c r="B101" s="60"/>
-      <c r="C101" s="95"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="52"/>
       <c r="D101" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F101" s="62"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="44"/>
     </row>
     <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A102" s="12"/>
-      <c r="B102" s="58" t="s">
+      <c r="B102" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="93" t="s">
+      <c r="C102" s="50" t="s">
         <v>60</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>175</v>
       </c>
       <c r="E102" s="15"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="52"/>
-      <c r="H102" s="53"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="44"/>
     </row>
     <row r="103" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="13"/>
-      <c r="B103" s="60"/>
-      <c r="C103" s="95"/>
+      <c r="B103" s="49"/>
+      <c r="C103" s="52"/>
       <c r="D103" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E103" s="16"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="46"/>
     </row>
     <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>14</v>
       </c>
-      <c r="B104" s="38" t="s">
+      <c r="B104" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C104" s="75" t="s">
+      <c r="C104" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E104" s="75" t="s">
+      <c r="E104" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="F104" s="75" t="s">
+      <c r="F104" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="G104" s="50" t="s">
+      <c r="G104" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="H104" s="51"/>
+      <c r="H104" s="42"/>
     </row>
     <row r="105" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="40"/>
-      <c r="C105" s="76"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="39"/>
       <c r="D105" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="99"/>
-      <c r="F105" s="99"/>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="44"/>
     </row>
     <row r="106" spans="1:8" ht="36" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
-      <c r="B106" s="38" t="s">
+      <c r="B106" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C106" s="75" t="s">
+      <c r="C106" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E106" s="99"/>
-      <c r="F106" s="99"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="53"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="44"/>
     </row>
     <row r="107" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="4"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="76"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="39"/>
       <c r="D107" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E107" s="99"/>
-      <c r="F107" s="99"/>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="44"/>
     </row>
     <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
-      <c r="B108" s="38" t="s">
+      <c r="B108" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="C108" s="75" t="s">
+      <c r="C108" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E108" s="99"/>
-      <c r="F108" s="99"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="53"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="44"/>
     </row>
     <row r="109" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="5"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="76"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="39"/>
       <c r="D109" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="55"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E104:E109"/>
-    <mergeCell ref="F104:F109"/>
-    <mergeCell ref="G104:H109"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="G94:H103"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="F96:F103"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="G86:H93"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="F88:F95"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="G80:H85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="F72:F79"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="G45:H52"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="G53:H58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="B31:D34"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="G37:H44"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="F23:F30"/>
-    <mergeCell ref="G23:G30"/>
-    <mergeCell ref="H23:H30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -4458,6 +4391,105 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="F23:F30"/>
+    <mergeCell ref="G23:G30"/>
+    <mergeCell ref="H23:H30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B31:D34"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="G37:H44"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="G45:H52"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="G53:H58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="G80:H85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="F72:F79"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="G94:H103"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="F96:F103"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="G86:H93"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="F88:F95"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E104:E109"/>
+    <mergeCell ref="F104:F109"/>
+    <mergeCell ref="G104:H109"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>

--- a/Finish_repo/Progress.xlsx
+++ b/Finish_repo/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ching\Desktop\C\cs61b\Finish_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1C1D02-500C-4A8B-833E-037EE1E59355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFADEF79-B324-4670-B142-0DA2A8B67DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8DF1F39C-5698-477D-AC65-5D6D325D3D4D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="195">
   <si>
     <t>Week</t>
   </si>
@@ -1700,6 +1700,14 @@
   </si>
   <si>
     <t>lab3對答案</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>proj1有幾個綠色Stamp還沒做完，也還沒寫額外的test</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab做了一半</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2052,7 +2060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2161,19 +2169,58 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2192,6 +2239,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2203,6 +2256,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2212,157 +2361,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2682,8 +2717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED999E0B-2FF1-4E79-B2F3-6B08563A640A}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2707,19 +2742,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="93"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:12" ht="68" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="63">
+      <c r="C2" s="42">
         <v>1.1000000000000001</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -2731,10 +2766,10 @@
       <c r="F2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="95"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="29" t="s">
         <v>185</v>
       </c>
@@ -2746,8 +2781,8 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="23" t="s">
         <v>10</v>
       </c>
@@ -2755,31 +2790,31 @@
         <v>12</v>
       </c>
       <c r="F3" s="25"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
       <c r="I3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="26"/>
       <c r="E4" s="23"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="103" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="36" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="42">
         <v>1.2</v>
       </c>
       <c r="D5" s="21" t="s">
@@ -2789,9 +2824,9 @@
       <c r="F5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="103" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="36" t="s">
         <v>191</v>
       </c>
       <c r="K5">
@@ -2804,16 +2839,16 @@
     </row>
     <row r="6" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="103" t="s">
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="36" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2821,10 +2856,10 @@
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="65">
         <v>2.1</v>
       </c>
       <c r="D7" s="21" t="s">
@@ -2836,17 +2871,17 @@
       <c r="F7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="95"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="23" t="s">
         <v>18</v>
       </c>
@@ -2854,23 +2889,23 @@
         <v>22</v>
       </c>
       <c r="F8" s="25"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="12"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="23"/>
       <c r="E9" s="25"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="97"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="26"/>
       <c r="E10" s="30" t="s">
         <v>186</v>
@@ -2878,15 +2913,15 @@
       <c r="F10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="96"/>
-      <c r="H10" s="97"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:12" ht="102" x14ac:dyDescent="0.4">
       <c r="A11" s="12"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="65">
         <v>2.2000000000000002</v>
       </c>
       <c r="D11" s="31" t="s">
@@ -2896,13 +2931,13 @@
         <v>23</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="97"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="55"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="32" t="s">
         <v>18</v>
       </c>
@@ -2910,15 +2945,15 @@
         <v>12</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.4">
       <c r="A13" s="12"/>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="68" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="21" t="s">
@@ -2926,87 +2961,93 @@
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="77"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="42">
         <v>2.5</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="42"/>
+      <c r="H15" s="105"/>
+      <c r="I15" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="64"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="107"/>
+      <c r="I16" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="64"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="107"/>
     </row>
     <row r="18" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="26"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
     </row>
     <row r="19" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="60" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="21" t="s">
@@ -3015,60 +3056,60 @@
       <c r="E19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="101"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="107"/>
     </row>
     <row r="20" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="71"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="101"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107"/>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="42">
         <v>4.0999999999999996</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="107"/>
     </row>
     <row r="22" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109"/>
     </row>
     <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
         <v>4</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="65">
         <v>4.2</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -3077,13 +3118,13 @@
       <c r="E23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="65" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3091,44 +3132,44 @@
       <c r="A24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="54"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="12"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="15"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="55"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A27" s="12"/>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="65">
         <v>4.3</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -3137,65 +3178,65 @@
       <c r="E27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A29" s="12"/>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="68" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="13"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="77"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="16"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>5</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="42" t="s">
         <v>58</v>
       </c>
       <c r="H31" s="9"/>
@@ -3204,39 +3245,39 @@
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="64"/>
+      <c r="F32" s="43"/>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="64"/>
+      <c r="F33" s="43"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="4"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="64"/>
+      <c r="F34" s="43"/>
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="79" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -3245,66 +3286,66 @@
       <c r="E35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="66" t="s">
+      <c r="F35" s="43"/>
+      <c r="G35" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="67"/>
+      <c r="H35" s="82"/>
     </row>
     <row r="36" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="80"/>
       <c r="D36" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="68" t="s">
+      <c r="F36" s="43"/>
+      <c r="G36" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="69"/>
+      <c r="H36" s="84"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="60" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="41" t="s">
+      <c r="F37" s="43"/>
+      <c r="G37" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="42"/>
+      <c r="H37" s="55"/>
     </row>
     <row r="38" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="71"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="57"/>
     </row>
     <row r="39" spans="1:8" ht="68" x14ac:dyDescent="0.4">
       <c r="A39" s="10">
         <v>6</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="68" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -3316,15 +3357,15 @@
       <c r="F39" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="57"/>
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="82"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="15" t="s">
         <v>18</v>
       </c>
@@ -3332,37 +3373,37 @@
         <v>22</v>
       </c>
       <c r="F40" s="20"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="44"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="57"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="12"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="82"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="15"/>
       <c r="E41" s="20"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="57"/>
     </row>
     <row r="42" spans="1:8" ht="68.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="77"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="69"/>
       <c r="D42" s="16"/>
       <c r="E42" s="17"/>
       <c r="F42" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="44"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="57"/>
     </row>
     <row r="43" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A43" s="12"/>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="68" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="10" t="s">
@@ -3372,13 +3413,13 @@
         <v>73</v>
       </c>
       <c r="F43" s="12"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="44"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="57"/>
     </row>
     <row r="44" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="12"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="77"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="16" t="s">
         <v>18</v>
       </c>
@@ -3386,15 +3427,15 @@
         <v>12</v>
       </c>
       <c r="F44" s="12"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="46"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="59"/>
     </row>
     <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.4">
       <c r="A45" s="12"/>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="76" t="s">
+      <c r="C45" s="68" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="10" t="s">
@@ -3402,31 +3443,31 @@
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="57"/>
+      <c r="H45" s="87"/>
     </row>
     <row r="46" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="77"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="59"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>7</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="60" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -3438,15 +3479,15 @@
       <c r="F47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G47" s="58"/>
-      <c r="H47" s="59"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="89"/>
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="75"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="92"/>
       <c r="D48" s="7" t="s">
         <v>18</v>
       </c>
@@ -3454,37 +3495,37 @@
         <v>22</v>
       </c>
       <c r="F48" s="20"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="59"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="89"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="75"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="7"/>
       <c r="E49" s="20"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="59"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="89"/>
     </row>
     <row r="50" spans="1:8" ht="119.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="4"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="71"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="8"/>
       <c r="E50" s="18"/>
       <c r="F50" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G50" s="58"/>
-      <c r="H50" s="59"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="89"/>
     </row>
     <row r="51" spans="1:8" ht="119" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="70" t="s">
+      <c r="C51" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -3494,13 +3535,13 @@
         <v>87</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="59"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="89"/>
     </row>
     <row r="52" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="4"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="8" t="s">
         <v>18</v>
       </c>
@@ -3508,15 +3549,15 @@
         <v>12</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="61"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="91"/>
     </row>
     <row r="53" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -3524,31 +3565,31 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="42"/>
+      <c r="H53" s="55"/>
     </row>
     <row r="54" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="44"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="57"/>
     </row>
     <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A55" s="10">
         <v>8</v>
       </c>
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="76" t="s">
+      <c r="C55" s="68" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="10" t="s">
@@ -3560,15 +3601,15 @@
       <c r="F55" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G55" s="43"/>
-      <c r="H55" s="44"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="57"/>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="82"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="85"/>
       <c r="D56" s="15" t="s">
         <v>18</v>
       </c>
@@ -3576,37 +3617,37 @@
         <v>22</v>
       </c>
       <c r="F56" s="20"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="44"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="57"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="12"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="82"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="85"/>
       <c r="D57" s="15"/>
       <c r="E57" s="20"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="57"/>
     </row>
     <row r="58" spans="1:8" ht="102.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="12"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="77"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="69"/>
       <c r="D58" s="16"/>
       <c r="E58" s="17"/>
       <c r="F58" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="46"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="59"/>
     </row>
     <row r="59" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A59" s="12"/>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="76" t="s">
+      <c r="C59" s="68" t="s">
         <v>105</v>
       </c>
       <c r="D59" s="10" t="s">
@@ -3616,15 +3657,15 @@
         <v>101</v>
       </c>
       <c r="F59" s="12"/>
-      <c r="G59" s="56" t="s">
+      <c r="G59" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="H59" s="57"/>
+      <c r="H59" s="87"/>
     </row>
     <row r="60" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="12"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="77"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="69"/>
       <c r="D60" s="16" t="s">
         <v>18</v>
       </c>
@@ -3632,17 +3673,17 @@
         <v>12</v>
       </c>
       <c r="F60" s="12"/>
-      <c r="G60" s="58" t="s">
+      <c r="G60" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="59"/>
+      <c r="H60" s="89"/>
     </row>
     <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.4">
       <c r="A61" s="12"/>
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="76" t="s">
+      <c r="C61" s="68" t="s">
         <v>111</v>
       </c>
       <c r="D61" s="10" t="s">
@@ -3650,31 +3691,31 @@
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="58" t="s">
+      <c r="G61" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="H61" s="59"/>
+      <c r="H61" s="89"/>
     </row>
     <row r="62" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="13"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="77"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="69"/>
       <c r="D62" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="13"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="79"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="94"/>
     </row>
     <row r="63" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>9</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C63" s="60" t="s">
         <v>114</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -3686,15 +3727,15 @@
       <c r="F63" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G63" s="78"/>
-      <c r="H63" s="79"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="94"/>
     </row>
     <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="75"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="92"/>
       <c r="D64" s="7" t="s">
         <v>18</v>
       </c>
@@ -3702,37 +3743,37 @@
         <v>22</v>
       </c>
       <c r="F64" s="20"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="79"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="94"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
-      <c r="B65" s="62"/>
-      <c r="C65" s="75"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="92"/>
       <c r="D65" s="7"/>
       <c r="E65" s="20"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="79"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="94"/>
     </row>
     <row r="66" spans="1:8" ht="68.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="4"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="71"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="8"/>
       <c r="E66" s="18"/>
       <c r="F66" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G66" s="78"/>
-      <c r="H66" s="79"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="94"/>
     </row>
     <row r="67" spans="1:8" ht="102" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="60" t="s">
         <v>121</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -3742,13 +3783,13 @@
         <v>117</v>
       </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="79"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="94"/>
     </row>
     <row r="68" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="4"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="71"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="61"/>
       <c r="D68" s="8" t="s">
         <v>18</v>
       </c>
@@ -3756,15 +3797,15 @@
         <v>12</v>
       </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="79"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="94"/>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="70" t="s">
+      <c r="C69" s="60" t="s">
         <v>124</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -3772,40 +3813,40 @@
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="79"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="94"/>
     </row>
     <row r="70" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="71"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="61"/>
       <c r="D70" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="81"/>
+      <c r="G70" s="95"/>
+      <c r="H70" s="96"/>
     </row>
     <row r="71" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="74"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="102"/>
       <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>10</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="70" t="s">
+      <c r="C72" s="60" t="s">
         <v>128</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -3814,7 +3855,7 @@
       <c r="E72" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F72" s="38" t="s">
+      <c r="F72" s="79" t="s">
         <v>132</v>
       </c>
       <c r="H72" s="9"/>
@@ -3823,41 +3864,41 @@
       <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="62"/>
-      <c r="C73" s="75"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="92"/>
       <c r="D73" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="40"/>
+      <c r="F73" s="103"/>
       <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="75"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="92"/>
       <c r="D74" s="7"/>
       <c r="E74" s="20"/>
-      <c r="F74" s="40"/>
+      <c r="F74" s="103"/>
       <c r="H74" s="9"/>
     </row>
     <row r="75" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="4"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="71"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="61"/>
       <c r="D75" s="8"/>
       <c r="E75" s="18"/>
-      <c r="F75" s="40"/>
+      <c r="F75" s="103"/>
       <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:8" ht="119" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="70" t="s">
+      <c r="C76" s="60" t="s">
         <v>134</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -3866,60 +3907,60 @@
       <c r="E76" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F76" s="40"/>
+      <c r="F76" s="103"/>
       <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="4"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="71"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="61"/>
       <c r="D77" s="8" t="s">
         <v>136</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="40"/>
+      <c r="F77" s="103"/>
       <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="79" t="s">
         <v>138</v>
       </c>
       <c r="E78" s="7"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="66" t="s">
+      <c r="F78" s="103"/>
+      <c r="G78" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="H78" s="67"/>
+      <c r="H78" s="82"/>
     </row>
     <row r="79" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="68" t="s">
+      <c r="F79" s="80"/>
+      <c r="G79" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="H79" s="69"/>
+      <c r="H79" s="84"/>
     </row>
     <row r="80" spans="1:8" ht="85" x14ac:dyDescent="0.4">
       <c r="A80" s="10">
         <v>11</v>
       </c>
-      <c r="B80" s="47" t="s">
+      <c r="B80" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="50" t="s">
+      <c r="C80" s="97" t="s">
         <v>142</v>
       </c>
       <c r="D80" s="10" t="s">
@@ -3931,17 +3972,17 @@
       <c r="F80" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G80" s="56" t="s">
+      <c r="G80" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="57"/>
+      <c r="H80" s="87"/>
     </row>
     <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A81" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="48"/>
-      <c r="C81" s="51"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="98"/>
       <c r="D81" s="15" t="s">
         <v>18</v>
       </c>
@@ -3949,37 +3990,37 @@
         <v>22</v>
       </c>
       <c r="F81" s="20"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="59"/>
+      <c r="G81" s="88"/>
+      <c r="H81" s="89"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="12"/>
-      <c r="B82" s="48"/>
-      <c r="C82" s="51"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="98"/>
       <c r="D82" s="15"/>
       <c r="E82" s="20"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="59"/>
+      <c r="G82" s="88"/>
+      <c r="H82" s="89"/>
     </row>
     <row r="83" spans="1:8" ht="85.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="12"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="52"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="99"/>
       <c r="D83" s="16"/>
       <c r="E83" s="17"/>
       <c r="F83" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G83" s="58"/>
-      <c r="H83" s="59"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="89"/>
     </row>
     <row r="84" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A84" s="12"/>
-      <c r="B84" s="47" t="s">
+      <c r="B84" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="C84" s="50" t="s">
+      <c r="C84" s="97" t="s">
         <v>150</v>
       </c>
       <c r="D84" s="10" t="s">
@@ -3989,13 +4030,13 @@
         <v>145</v>
       </c>
       <c r="F84" s="12"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="59"/>
+      <c r="G84" s="88"/>
+      <c r="H84" s="89"/>
     </row>
     <row r="85" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="12"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="52"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="99"/>
       <c r="D85" s="16" t="s">
         <v>18</v>
       </c>
@@ -4003,15 +4044,15 @@
         <v>12</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="61"/>
+      <c r="G85" s="90"/>
+      <c r="H85" s="91"/>
     </row>
     <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A86" s="12"/>
-      <c r="B86" s="47" t="s">
+      <c r="B86" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="50" t="s">
+      <c r="C86" s="97" t="s">
         <v>60</v>
       </c>
       <c r="D86" s="10" t="s">
@@ -4019,31 +4060,31 @@
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="56" t="s">
+      <c r="G86" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="H86" s="57"/>
+      <c r="H86" s="87"/>
     </row>
     <row r="87" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="13"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="52"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="99"/>
       <c r="D87" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="13"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="59"/>
+      <c r="G87" s="88"/>
+      <c r="H87" s="89"/>
     </row>
     <row r="88" spans="1:8" ht="36" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>12</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="79" t="s">
         <v>156</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -4052,54 +4093,54 @@
       <c r="E88" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F88" s="63" t="s">
+      <c r="F88" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="G88" s="58"/>
-      <c r="H88" s="59"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="89"/>
     </row>
     <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="62"/>
-      <c r="C89" s="40"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="103"/>
       <c r="D89" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F89" s="64"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="59"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="89"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
-      <c r="B90" s="62"/>
-      <c r="C90" s="40"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="103"/>
       <c r="D90" s="7"/>
       <c r="E90" s="20"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="59"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="89"/>
     </row>
     <row r="91" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="4"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="39"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="80"/>
       <c r="D91" s="8"/>
       <c r="E91" s="18"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="59"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="88"/>
+      <c r="H91" s="89"/>
     </row>
     <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="38" t="s">
+      <c r="C92" s="79" t="s">
         <v>162</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -4108,62 +4149,62 @@
       <c r="E92" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F92" s="64"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="59"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="88"/>
+      <c r="H92" s="89"/>
     </row>
     <row r="93" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="4"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="39"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="80"/>
       <c r="D93" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="64"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="61"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="90"/>
+      <c r="H93" s="91"/>
     </row>
     <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C94" s="38" t="s">
+      <c r="C94" s="79" t="s">
         <v>60</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E94" s="7"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="41" t="s">
+      <c r="F94" s="43"/>
+      <c r="G94" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="H94" s="42"/>
+      <c r="H94" s="55"/>
     </row>
     <row r="95" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="39"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="80"/>
       <c r="D95" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="8"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="57"/>
     </row>
     <row r="96" spans="1:8" ht="34" x14ac:dyDescent="0.4">
       <c r="A96" s="10">
         <v>13</v>
       </c>
-      <c r="B96" s="47" t="s">
+      <c r="B96" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="C96" s="50" t="s">
+      <c r="C96" s="97" t="s">
         <v>168</v>
       </c>
       <c r="D96" s="10" t="s">
@@ -4172,54 +4213,54 @@
       <c r="E96" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F96" s="53" t="s">
+      <c r="F96" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="G96" s="43"/>
-      <c r="H96" s="44"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="57"/>
     </row>
     <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A97" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="48"/>
-      <c r="C97" s="51"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="98"/>
       <c r="D97" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F97" s="54"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="44"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="57"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="12"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="51"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="98"/>
       <c r="D98" s="15"/>
       <c r="E98" s="20"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="44"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="57"/>
     </row>
     <row r="99" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="12"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="52"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="99"/>
       <c r="D99" s="16"/>
       <c r="E99" s="17"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="44"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="57"/>
     </row>
     <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.4">
       <c r="A100" s="12"/>
-      <c r="B100" s="47" t="s">
+      <c r="B100" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="50" t="s">
+      <c r="C100" s="97" t="s">
         <v>60</v>
       </c>
       <c r="D100" s="10" t="s">
@@ -4228,148 +4269,247 @@
       <c r="E100" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F100" s="54"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="44"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="57"/>
     </row>
     <row r="101" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="12"/>
-      <c r="B101" s="49"/>
-      <c r="C101" s="52"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="99"/>
       <c r="D101" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F101" s="54"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="44"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="57"/>
     </row>
     <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A102" s="12"/>
-      <c r="B102" s="47" t="s">
+      <c r="B102" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="50" t="s">
+      <c r="C102" s="97" t="s">
         <v>60</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>175</v>
       </c>
       <c r="E102" s="15"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="44"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="57"/>
     </row>
     <row r="103" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="13"/>
-      <c r="B103" s="49"/>
-      <c r="C103" s="52"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="99"/>
       <c r="D103" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E103" s="16"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="46"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="59"/>
     </row>
     <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>14</v>
       </c>
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="79" t="s">
         <v>60</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E104" s="38" t="s">
+      <c r="E104" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="F104" s="38" t="s">
+      <c r="F104" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="G104" s="41" t="s">
+      <c r="G104" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="H104" s="42"/>
+      <c r="H104" s="55"/>
     </row>
     <row r="105" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="37"/>
-      <c r="C105" s="39"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="80"/>
       <c r="D105" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="40"/>
-      <c r="F105" s="40"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="44"/>
+      <c r="E105" s="103"/>
+      <c r="F105" s="103"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="57"/>
     </row>
     <row r="106" spans="1:8" ht="36" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="C106" s="38" t="s">
+      <c r="C106" s="79" t="s">
         <v>60</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E106" s="40"/>
-      <c r="F106" s="40"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="44"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="57"/>
     </row>
     <row r="107" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="4"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="39"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="80"/>
       <c r="D107" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E107" s="40"/>
-      <c r="F107" s="40"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="44"/>
+      <c r="E107" s="103"/>
+      <c r="F107" s="103"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="57"/>
     </row>
     <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C108" s="38" t="s">
+      <c r="C108" s="79" t="s">
         <v>60</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E108" s="40"/>
-      <c r="F108" s="40"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="44"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="57"/>
     </row>
     <row r="109" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="5"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="39"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="80"/>
       <c r="D109" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E109" s="39"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="46"/>
+      <c r="E109" s="80"/>
+      <c r="F109" s="80"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E104:E109"/>
+    <mergeCell ref="F104:F109"/>
+    <mergeCell ref="G104:H109"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="G94:H103"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="F96:F103"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="G86:H93"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="F88:F95"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="G80:H85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="F72:F79"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="G45:H52"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="G53:H58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B31:D34"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="G37:H44"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="F23:F30"/>
+    <mergeCell ref="G23:G30"/>
+    <mergeCell ref="H23:H30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -4391,105 +4531,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="F23:F30"/>
-    <mergeCell ref="G23:G30"/>
-    <mergeCell ref="H23:H30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B31:D34"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="G37:H44"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="G45:H52"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="G53:H58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="G80:H85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="F72:F79"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="G94:H103"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="F96:F103"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="G86:H93"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="F88:F95"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E104:E109"/>
-    <mergeCell ref="F104:F109"/>
-    <mergeCell ref="G104:H109"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
